--- a/Projekt/Zeichenmaschine_Inventor/weitere Dateien/Parameter_1.xlsx
+++ b/Projekt/Zeichenmaschine_Inventor/weitere Dateien/Parameter_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\Schule\1_Zeichenmaschine\Zeichenmaschine_Inventor\weitere Dateien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\Schule\1_Zeichenmaschine\Zeichenmaschine_github\DrawMachine\DrawMachineConstruction\Projekt\Zeichenmaschine_Inventor\weitere Dateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE14264F-434D-40FE-9605-19AE06C407CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAF4E3A-9119-4F04-B6A1-2EA57D94CE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Parametername</t>
   </si>
@@ -55,28 +55,85 @@
     <t>ZF -&gt; Zettelfläche</t>
   </si>
   <si>
-    <t>ZF_a</t>
-  </si>
-  <si>
-    <t>ZF_h</t>
-  </si>
-  <si>
     <t>Acryl</t>
   </si>
   <si>
-    <t>B_l</t>
-  </si>
-  <si>
-    <t>B_b</t>
-  </si>
-  <si>
     <t>GM -&gt; Getriebemotor, BF -&gt; Befestigung</t>
   </si>
   <si>
-    <t>GM_BF_r</t>
-  </si>
-  <si>
-    <t>B -&gt; Basis</t>
+    <t>l -&gt; Länge</t>
+  </si>
+  <si>
+    <t>b -&gt; Breite</t>
+  </si>
+  <si>
+    <t>Bas_Ver_Länge</t>
+  </si>
+  <si>
+    <t>Bas_Ver_Breite</t>
+  </si>
+  <si>
+    <t>Bas_Haupt_Länge</t>
+  </si>
+  <si>
+    <t>Bas_Haupt_Breite</t>
+  </si>
+  <si>
+    <t>Bas_Haupt_Höhe</t>
+  </si>
+  <si>
+    <t>GM_Halt_Höhe</t>
+  </si>
+  <si>
+    <t>SM_Pos_Abstand</t>
+  </si>
+  <si>
+    <t>Gel_Mot_St_1</t>
+  </si>
+  <si>
+    <t>Gel_Mot_St_2</t>
+  </si>
+  <si>
+    <t>Gel_Mot_St_Höhe</t>
+  </si>
+  <si>
+    <t>Gel_Mot_St_Breite</t>
+  </si>
+  <si>
+    <t>St_kurz_Länge</t>
+  </si>
+  <si>
+    <t>St_kurz_Höhe</t>
+  </si>
+  <si>
+    <t>St_lang_Länge</t>
+  </si>
+  <si>
+    <t>St_kurz_Breite</t>
+  </si>
+  <si>
+    <t>Zet_Breite</t>
+  </si>
+  <si>
+    <t>Zet_Höhe</t>
+  </si>
+  <si>
+    <t>Zet_Kluppen_Breite</t>
+  </si>
+  <si>
+    <t>Zet_Kluppen_Höhe</t>
+  </si>
+  <si>
+    <t>Zet_KluppenDicke</t>
+  </si>
+  <si>
+    <t>Druck_teil_Durchmesser</t>
+  </si>
+  <si>
+    <t>Druck_teil_Höhe</t>
+  </si>
+  <si>
+    <t>Alu_Prof</t>
   </si>
 </sst>
 </file>
@@ -428,21 +485,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="42.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,37 +513,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -495,29 +555,230 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>180</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>140</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>7.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>180</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>7.5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>210</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Projekt/Zeichenmaschine_Inventor/weitere Dateien/Parameter_1.xlsx
+++ b/Projekt/Zeichenmaschine_Inventor/weitere Dateien/Parameter_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\Schule\1_Zeichenmaschine\Zeichenmaschine_github\DrawMachine\DrawMachineConstruction\Projekt\Zeichenmaschine_Inventor\weitere Dateien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias\Desktop\Zeichenmaschine\DrawMachine\DrawMachineConstruction\Projekt\Zeichenmaschine_Inventor\weitere Dateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAF4E3A-9119-4F04-B6A1-2EA57D94CE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BFAB3B-4B00-4F6F-8F85-3907C3D231B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +775,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
